--- a/_Out/Server/NFDataCfg/Excel_Struct/Talent.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Talent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="27765" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Id</t>
   </si>
@@ -46,25 +46,69 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>TalentType</t>
+    <t>ShowName</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>名字字符串索引</t>
+  </si>
+  <si>
+    <t>描述字符串索引</t>
+  </si>
+  <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>绝对值属性索引</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>图集</t>
+  </si>
+  <si>
+    <t>UpLevel</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>ShowName</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>名字字符串索引</t>
-  </si>
-  <si>
-    <t>描述字符串索引</t>
+    <t>升级需要的等级</t>
+  </si>
+  <si>
+    <t>AfterUpID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升级后的新技能I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -72,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,6 +127,42 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -108,6 +188,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -115,126 +279,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,19 +289,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,18 +403,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,7 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,109 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,21 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,6 +516,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,6 +551,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,181 +580,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,13 +1126,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1158,14 +1205,16 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1189,15 +1238,15 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1222,12 +1271,140 @@
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F2:F3 F5:F8 F9:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
